--- a/src/main/webapp/example/tables.xlsx
+++ b/src/main/webapp/example/tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="101">
   <si>
     <t>DB tables</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,34 @@
   </si>
   <si>
     <t>예약날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>businessnumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservationmenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservationtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservationdate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1432,36 +1460,57 @@
       </c>
     </row>
     <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
       <c r="D56" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
       <c r="D57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
       <c r="D58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
       <c r="D59" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
       <c r="D60" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
       <c r="D61" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
       <c r="D62" t="s">
         <v>93</v>
       </c>
@@ -1469,6 +1518,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/webapp/example/tables.xlsx
+++ b/src/main/webapp/example/tables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="23655" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="27630" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="100">
   <si>
     <t>DB tables</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +392,30 @@
   </si>
   <si>
     <t>예약날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입점요청상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:K62"/>
+  <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -965,6 +990,9 @@
       </c>
     </row>
     <row r="14" spans="2:11">
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
       <c r="H14" t="s">
         <v>43</v>
       </c>
@@ -1000,6 +1028,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="17" spans="2:11">
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
         <v>46</v>
@@ -1394,6 +1427,9 @@
       </c>
     </row>
     <row r="48" spans="2:11">
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
       <c r="H48" t="s">
         <v>84</v>
       </c>
@@ -1402,6 +1438,16 @@
       </c>
       <c r="J48" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="D50" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -1464,6 +1510,11 @@
     <row r="62" spans="2:5">
       <c r="D62" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="D63" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
